--- a/biology/Médecine/Werner_E._Gerabek/Werner_E._Gerabek.xlsx
+++ b/biology/Médecine/Werner_E._Gerabek/Werner_E._Gerabek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Werner Erwin Gerabek (né le 14 juillet 1952 à Gerolzhofen[1]) est un historien allemand, germaniste et historien de la médecine ainsi que fondateur et directeur général de la maison d'édition scientifique allemande (DWV) (de).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Werner Erwin Gerabek (né le 14 juillet 1952 à Gerolzhofen) est un historien allemand, germaniste et historien de la médecine ainsi que fondateur et directeur général de la maison d'édition scientifique allemande (DWV) (de).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Werner E. Gerabek, fils du professeur Franz Gerabek (1912-1985)[2], étudie aux écoles primaires de Lülsfeld et Giebelstadt et le lycée Röntgen de Wurtzbourg (de). Il y obtient son diplôme d'études secondaires en 1973. Il étudie l'allemand, l'histoire et les sciences sociales à l'Université de Wurtzbourg. Ses professeurs académiques sont Hans-Jürgen Schings (de), Kurt Ruh (de), Norbert Richard Wolf (de), Heinrich Rombach (de), Georg Brunner (de), Peter Johanek (de), Peter Herde (de) et Otto Meyer (de). En 1980, il réussit l'examen scientifique pour l'enseignement dans les lycées (examen d'État). La même année, il devient assistant de recherche à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg, dirigé par Gundolf Keil. Il y poursuit ses études dans le domaine de l'histoire médicale. Après avoir travaillé comme étudiant stagiaire à Schweinfurt et Traunstein (1984-1986) et avoir passé le deuxième examen d'État, Gerabek devient assistant de recherche à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg en 1986. En 1988, avec une thèse sur Jean Paul, qu'il écrit avec Günter Hess (de) et Helmut Pfotenhauer (de), à la Faculté de Philosophie II de l'Université de Wurtzbourg, il obtient un doctorat[1]. Il est conseiller académique temporaire[3] et est habilité en 1995 à la faculté de médecine de l'université de Wurtzbourg avec une thèse sur Friedrich Wilhelm Joseph Schelling pour l'histoire de la médecine, reçoit la Venia legendi (de) et est nommé maître de conférences. De 1996 à 2012, il enseigne l'histoire médicale en tant que conférencier habilité à délivrer des doctorats à l'Université de Ratisbonne. En 2001, Gerabek est nommé professeur adjoint d'histoire et d'éthique de la médecine à la Faculté de médecine de l'Université de Wurtzbourg[4].
-En 1998, Gerabek fonde la maison d'édition scientifique allemande (DWV) (de) à Wurtzbourg, qu'il dirige toujours aujourd'hui[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Werner E. Gerabek, fils du professeur Franz Gerabek (1912-1985), étudie aux écoles primaires de Lülsfeld et Giebelstadt et le lycée Röntgen de Wurtzbourg (de). Il y obtient son diplôme d'études secondaires en 1973. Il étudie l'allemand, l'histoire et les sciences sociales à l'Université de Wurtzbourg. Ses professeurs académiques sont Hans-Jürgen Schings (de), Kurt Ruh (de), Norbert Richard Wolf (de), Heinrich Rombach (de), Georg Brunner (de), Peter Johanek (de), Peter Herde (de) et Otto Meyer (de). En 1980, il réussit l'examen scientifique pour l'enseignement dans les lycées (examen d'État). La même année, il devient assistant de recherche à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg, dirigé par Gundolf Keil. Il y poursuit ses études dans le domaine de l'histoire médicale. Après avoir travaillé comme étudiant stagiaire à Schweinfurt et Traunstein (1984-1986) et avoir passé le deuxième examen d'État, Gerabek devient assistant de recherche à l'Institut d'histoire de la médecine de l'Université de Wurtzbourg en 1986. En 1988, avec une thèse sur Jean Paul, qu'il écrit avec Günter Hess (de) et Helmut Pfotenhauer (de), à la Faculté de Philosophie II de l'Université de Wurtzbourg, il obtient un doctorat. Il est conseiller académique temporaire et est habilité en 1995 à la faculté de médecine de l'université de Wurtzbourg avec une thèse sur Friedrich Wilhelm Joseph Schelling pour l'histoire de la médecine, reçoit la Venia legendi (de) et est nommé maître de conférences. De 1996 à 2012, il enseigne l'histoire médicale en tant que conférencier habilité à délivrer des doctorats à l'Université de Ratisbonne. En 2001, Gerabek est nommé professeur adjoint d'histoire et d'éthique de la médecine à la Faculté de médecine de l'Université de Wurtzbourg.
+En 1998, Gerabek fonde la maison d'édition scientifique allemande (DWV) (de) à Wurtzbourg, qu'il dirige toujours aujourd'hui
 Sur la base de ses recherches sur l'histoire des relations scientifiques germano-turques en médecine, Gerabek reçoit la plaque Atatürk de la faculté de médecine de l'Académie de médecine militaire Gülhane (de) à Istanbul en 1998.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux domaines de travail de Gerabek comprennent l'histoire de la médecine et de la dentisterie sous le national-socialisme. D'autres domaines de travail sont la médecine et l'anthropologie des Lumières et du romantisme allemands, l'histoire de la dentisterie, l'histoire médicale de Wurtzbourg et la lexicographie médico-historique[4]. Il est employé de la Neue Deutsche Biographie, pour laquelle il a jusqu'à présent écrit 51 articles sur les professionnels de la santé[6]. Il travaille également sur la médecine médiévale, notamment en tant que critique pour les Deutsches Archiv für Erforschung des Mittelalters (de), l'organe de publication des Monumenta Germaniae Historica (MGH), et en tant que contributeur au Lexikon des Mittelalters (de) et au Verfasserlexikon (de)[4]. En 1998, il écrit pour le Harenberg (de) Lexikon der Nobelpreisträger[7]. Dix-huit articles ergographiques sur les lauréats du prix Nobel de physiologie ou de médecine[4]. En 2005, Gerabek publie avec Bernhard Dietrich Haage, Gundolf Keil et Wolfgang Wegner, l'Enzyklopädie Medizingeschichte en 1998 en tant qu'historique médical « Pschyrembel (de) »[8],[9], pour lequel il écrit lui-même 164 articles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux domaines de travail de Gerabek comprennent l'histoire de la médecine et de la dentisterie sous le national-socialisme. D'autres domaines de travail sont la médecine et l'anthropologie des Lumières et du romantisme allemands, l'histoire de la dentisterie, l'histoire médicale de Wurtzbourg et la lexicographie médico-historique. Il est employé de la Neue Deutsche Biographie, pour laquelle il a jusqu'à présent écrit 51 articles sur les professionnels de la santé. Il travaille également sur la médecine médiévale, notamment en tant que critique pour les Deutsches Archiv für Erforschung des Mittelalters (de), l'organe de publication des Monumenta Germaniae Historica (MGH), et en tant que contributeur au Lexikon des Mittelalters (de) et au Verfasserlexikon (de). En 1998, il écrit pour le Harenberg (de) Lexikon der Nobelpreisträger. Dix-huit articles ergographiques sur les lauréats du prix Nobel de physiologie ou de médecine. En 2005, Gerabek publie avec Bernhard Dietrich Haage, Gundolf Keil et Wolfgang Wegner, l'Enzyklopädie Medizingeschichte en 1998 en tant qu'historique médical « Pschyrembel (de) » pour lequel il écrit lui-même 164 articles.
 Gerabek publie jusqu'à présent plus de 400 articles et dirige de nombreuses thèses dans les universités de Wurtzbourg et Ratisbonne en tant que directeur de doctorat. Une doctorante de Gerabeks reçoit le « Prix de la recherche sur le rôle de la profession médicale à l'ère du national-socialisme » de l'Association médicale allemande (de) pour sa thèse sur le dentiste SS Willy Frank (de).
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Activité de réviseur scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Gerabek travaille en tant que critique pour l'histoire de la médecine pour la Fondation académique nationale allemande, la Fondation Alexander-von-Humboldt et le Fonds national suisse pour la promotion de la recherche scientifique (FNS). Il travaille également comme expert pour la Wiener Klinische Wochenschrift. Gerabek est également membre du Catalogue national basé sur les compétences des objectifs d'apprentissage en dentisterie (NKLZ).
 </t>
@@ -607,7 +625,9 @@
           <t>Adhésions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Association allemande du commerce du livre (de)
 Société d'histoire des sciences, de la médecine et de la technologie (de)
@@ -640,7 +660,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>en tant qu'auteur :
 „Consolida maior“, „Consolida minor“ und eine Kräuterfrau. Medizinhistorische Beobachtungen zur Reinhardsbrunner Briefsammlung. In: Sudhoffs Archiv. Zeitschrift für Wissenschaftsgeschichte. Band 67, 1983, S. 80–93.
